--- a/data/snowballing/study_set_22.xlsx
+++ b/data/snowballing/study_set_22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzprante/Nextcloud/project-vwl4makro/09_Forschung/Drittmittel/DZ2022/WP1_Meta_monetary/HIWI_MP/Full text download/packages_for_full_text_download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1422D1DB-7B54-8440-A524-1BEE27E6FC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D277919-7E66-4847-9EE8-5A628FE1A78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="840" windowWidth="20520" windowHeight="16600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9820" yWindow="2460" windowWidth="30560" windowHeight="22000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2710,7 +2710,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2720,6 +2720,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2740,7 +2746,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -3058,8 +3064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AG102" sqref="AG102"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
